--- a/Results/SummaryResultsSulfate.xlsx
+++ b/Results/SummaryResultsSulfate.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\N\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\N\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="27810" windowHeight="12795"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="27810" windowHeight="12800"/>
   </bookViews>
   <sheets>
-    <sheet name="SummaryResultsSulfate" sheetId="1" r:id="rId1"/>
+    <sheet name="%calc" sheetId="2" r:id="rId1"/>
+    <sheet name="SummaryResultsSulfate" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="28">
   <si>
     <t>kas</t>
   </si>
@@ -89,13 +90,28 @@
   <si>
     <t>ID</t>
   </si>
+  <si>
+    <t>Kaikki kasvit, sulfaatti 15.11.2015</t>
+  </si>
+  <si>
+    <t>S1-S4 average</t>
+  </si>
+  <si>
+    <t>Difference to Min</t>
+  </si>
+  <si>
+    <t>Significant</t>
+  </si>
+  <si>
+    <t>Non-significant p&gt;0.05</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -530,9 +546,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -574,12 +590,15 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
@@ -620,6 +639,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="43" builtinId="5"/>
     <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
@@ -639,7 +659,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -657,7 +676,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -675,7 +693,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -693,7 +710,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -711,7 +727,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -729,7 +744,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H121" totalsRowShown="0" dataDxfId="0" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H121" totalsRowShown="0" dataDxfId="4" dataCellStyle="Comma">
   <autoFilter ref="A1:H121"/>
   <sortState ref="A2:H121">
     <sortCondition ref="D1:D121"/>
@@ -739,10 +754,10 @@
     <tableColumn id="2" name="kas"/>
     <tableColumn id="3" name="lan"/>
     <tableColumn id="4" name="time"/>
-    <tableColumn id="5" name="mean" dataDxfId="4" dataCellStyle="Comma"/>
-    <tableColumn id="6" name="sd" dataDxfId="3" dataCellStyle="Comma"/>
-    <tableColumn id="7" name="lower" dataDxfId="2" dataCellStyle="Comma"/>
-    <tableColumn id="8" name="upper" dataDxfId="1" dataCellStyle="Comma"/>
+    <tableColumn id="5" name="mean" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="6" name="sd" dataDxfId="2" dataCellStyle="Comma"/>
+    <tableColumn id="7" name="lower" dataDxfId="1" dataCellStyle="Comma"/>
+    <tableColumn id="8" name="upper" dataDxfId="0" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1045,18 +1060,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <f>AVERAGE(50.5,46.6,33.4,42.1)</f>
+        <v>43.15</v>
+      </c>
+      <c r="C4" s="2">
+        <f>B4/B5-1</f>
+        <v>0.64068441064638781</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>26.3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>28.1</v>
+      </c>
+      <c r="C6" s="2">
+        <f>B6/B5-1</f>
+        <v>6.8441064638783189E-2</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <f>AVERAGE(25.9,27,23.9,31.5)</f>
+        <v>27.074999999999999</v>
+      </c>
+      <c r="C12" s="2">
+        <f>B12/B13-1</f>
+        <v>0.18231441048034935</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>22.9</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C14" s="2">
+        <f>B14/B13-1</f>
+        <v>-0.15283842794759828</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1082,7 +1216,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>5</v>
       </c>
@@ -1108,7 +1242,7 @@
         <v>15.585145784487301</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>10</v>
       </c>
@@ -1134,7 +1268,7 @@
         <v>21.0618725279089</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>15</v>
       </c>
@@ -1160,7 +1294,7 @@
         <v>13.0560797112241</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>20</v>
       </c>
@@ -1186,7 +1320,7 @@
         <v>19.475082782364598</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>25</v>
       </c>
@@ -1212,7 +1346,7 @@
         <v>14.25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>30</v>
       </c>
@@ -1238,7 +1372,7 @@
         <v>13.4180111025284</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>35</v>
       </c>
@@ -1264,7 +1398,7 @@
         <v>22.575669485925399</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>40</v>
       </c>
@@ -1290,7 +1424,7 @@
         <v>22.209005551264202</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>45</v>
       </c>
@@ -1316,7 +1450,7 @@
         <v>19.393732571888801</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>50</v>
       </c>
@@ -1342,7 +1476,7 @@
         <v>15.4251401001153</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>55</v>
       </c>
@@ -1368,7 +1502,7 @@
         <v>19.934927093632702</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>60</v>
       </c>
@@ -1394,7 +1528,7 @@
         <v>10.9040969935229</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>65</v>
       </c>
@@ -1420,7 +1554,7 @@
         <v>23.548437881283601</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>70</v>
       </c>
@@ -1446,7 +1580,7 @@
         <v>28.8397531005307</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>75</v>
       </c>
@@ -1472,7 +1606,7 @@
         <v>19.803154497863499</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>80</v>
       </c>
@@ -1498,7 +1632,7 @@
         <v>22.676525755329301</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>85</v>
       </c>
@@ -1524,7 +1658,7 @@
         <v>22.975082782364598</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>90</v>
       </c>
@@ -1550,7 +1684,7 @@
         <v>17.1742581416494</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>95</v>
       </c>
@@ -1576,7 +1710,7 @@
         <v>22.803154497863499</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>100</v>
       </c>
@@ -1602,7 +1736,7 @@
         <v>13.627102608720399</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>105</v>
       </c>
@@ -1628,7 +1762,7 @@
         <v>21.837886199200501</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>110</v>
       </c>
@@ -1654,7 +1788,7 @@
         <v>22.7373234983679</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>115</v>
       </c>
@@ -1680,7 +1814,7 @@
         <v>18.9009804864072</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>120</v>
       </c>
@@ -1706,7 +1840,7 @@
         <v>10.4380816550249</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>3</v>
       </c>
@@ -1732,7 +1866,7 @@
         <v>37.489431195014099</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>8</v>
       </c>
@@ -1758,7 +1892,7 @@
         <v>38.6795062010614</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>13</v>
       </c>
@@ -1784,7 +1918,7 @@
         <v>27.387789924581199</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>18</v>
       </c>
@@ -1810,7 +1944,7 @@
         <v>35.176525755329301</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>23</v>
       </c>
@@ -1836,7 +1970,7 @@
         <v>24.900670549766701</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>28</v>
       </c>
@@ -1862,7 +1996,7 @@
         <v>22.654304063165501</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>33</v>
       </c>
@@ -1888,7 +2022,7 @@
         <v>45.990750247177097</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>38</v>
       </c>
@@ -1914,7 +2048,7 @@
         <v>27.1532671699734</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>43</v>
       </c>
@@ -1940,7 +2074,7 @@
         <v>20.486118667636099</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>48</v>
       </c>
@@ -1966,7 +2100,7 @@
         <v>32.238950561500303</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>53</v>
       </c>
@@ -1992,7 +2126,7 @@
         <v>18.977998127341198</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>58</v>
       </c>
@@ -2018,7 +2152,7 @@
         <v>16.6929120231521</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>63</v>
       </c>
@@ -2044,7 +2178,7 @@
         <v>44.556751458196999</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>68</v>
       </c>
@@ -2070,7 +2204,7 @@
         <v>37.1144084571308</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>73</v>
       </c>
@@ -2096,7 +2230,7 @@
         <v>26.688447187191201</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>78</v>
       </c>
@@ -2122,7 +2256,7 @@
         <v>32.998016247803797</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>83</v>
       </c>
@@ -2148,7 +2282,7 @@
         <v>21.556751458196999</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>88</v>
       </c>
@@ -2174,7 +2308,7 @@
         <v>22.4183340005339</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>93</v>
       </c>
@@ -2200,7 +2334,7 @@
         <v>42.045027756320998</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>98</v>
       </c>
@@ -2226,7 +2360,7 @@
         <v>39.710874361700299</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>103</v>
       </c>
@@ -2252,7 +2386,7 @@
         <v>22.564931930247202</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>108</v>
       </c>
@@ -2278,7 +2412,7 @@
         <v>27.854469831826702</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>113</v>
       </c>
@@ -2304,7 +2438,7 @@
         <v>18.945087017354599</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>118</v>
       </c>
@@ -2330,7 +2464,7 @@
         <v>15.5186861878993</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>4</v>
       </c>
@@ -2356,7 +2490,7 @@
         <v>18.2390477143048</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>9</v>
       </c>
@@ -2382,7 +2516,7 @@
         <v>25.042174872340102</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>14</v>
       </c>
@@ -2408,7 +2542,7 @@
         <v>15.758340289375999</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>19</v>
       </c>
@@ -2434,7 +2568,7 @@
         <v>7.5498493979319399</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>24</v>
       </c>
@@ -2460,7 +2594,7 @@
         <v>15.032644217391701</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>29</v>
       </c>
@@ -2486,7 +2620,7 @@
         <v>15.4183340005339</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>34</v>
       </c>
@@ -2512,7 +2646,7 @@
         <v>18.627016653792602</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>39</v>
       </c>
@@ -2538,7 +2672,7 @@
         <v>21.117831238763099</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>44</v>
       </c>
@@ -2564,7 +2698,7 @@
         <v>14.240088720646799</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>49</v>
       </c>
@@ -2590,7 +2724,7 @@
         <v>14.9434611987751</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>54</v>
       </c>
@@ -2616,7 +2750,7 @@
         <v>13.292572892243699</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>59</v>
       </c>
@@ -2642,7 +2776,7 @@
         <v>13.491694260788201</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>64</v>
       </c>
@@ -2668,7 +2802,7 @@
         <v>23.292572892243701</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>69</v>
       </c>
@@ -2694,7 +2828,7 @@
         <v>16.882658700479499</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>74</v>
       </c>
@@ -2720,7 +2854,7 @@
         <v>16.8397531005307</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>79</v>
       </c>
@@ -2746,7 +2880,7 @@
         <v>21.4183340005339</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>84</v>
       </c>
@@ -2772,7 +2906,7 @@
         <v>14.1742581416494</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>89</v>
       </c>
@@ -2798,7 +2932,7 @@
         <v>14.763921188805201</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>94</v>
       </c>
@@ -2824,7 +2958,7 @@
         <v>24.033445191416199</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>99</v>
       </c>
@@ -2850,7 +2984,7 @@
         <v>25.803778005275099</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>104</v>
       </c>
@@ -2876,7 +3010,7 @@
         <v>20.258340289376001</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>109</v>
       </c>
@@ -2902,7 +3036,7 @@
         <v>18.0760090945065</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>114</v>
       </c>
@@ -2928,7 +3062,7 @@
         <v>14.1010205144336</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>119</v>
       </c>
@@ -2954,7 +3088,7 @@
         <v>9.97408195264825</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>2</v>
       </c>
@@ -2980,7 +3114,7 @@
         <v>42.314647228127498</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>7</v>
       </c>
@@ -3006,7 +3140,7 @@
         <v>42.343145750507603</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>12</v>
       </c>
@@ -3032,7 +3166,7 @@
         <v>27.991694260788201</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>17</v>
       </c>
@@ -3058,7 +3192,7 @@
         <v>31.410788592907</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>22</v>
       </c>
@@ -3084,7 +3218,7 @@
         <v>25.25</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>27</v>
       </c>
@@ -3110,7 +3244,7 @@
         <v>23.032644217391699</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>32</v>
       </c>
@@ -3136,7 +3270,7 @@
         <v>35.692593977672601</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>37</v>
       </c>
@@ -3162,7 +3296,7 @@
         <v>28.3963199132656</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>42</v>
       </c>
@@ -3188,7 +3322,7 @@
         <v>20.112505430061798</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>47</v>
       </c>
@@ -3214,7 +3348,7 @@
         <v>33.575492365987898</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>52</v>
       </c>
@@ -3240,7 +3374,7 @@
         <v>18.803778005275099</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>57</v>
       </c>
@@ -3266,7 +3400,7 @@
         <v>14.5339934155172</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>62</v>
       </c>
@@ -3292,7 +3426,7 @@
         <v>43.208456608574103</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>67</v>
       </c>
@@ -3318,7 +3452,7 @@
         <v>39.233602154908503</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>72</v>
       </c>
@@ -3344,7 +3478,7 @@
         <v>29.377718676731</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>77</v>
       </c>
@@ -3370,7 +3504,7 @@
         <v>34.714061102799803</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>82</v>
       </c>
@@ -3396,7 +3530,7 @@
         <v>22.25</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>87</v>
       </c>
@@ -3422,7 +3556,7 @@
         <v>21.613248654051901</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>92</v>
       </c>
@@ -3448,7 +3582,7 @@
         <v>36.151017851247602</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>97</v>
       </c>
@@ -3474,7 +3608,7 @@
         <v>37.406840241478797</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>102</v>
       </c>
@@ -3500,7 +3634,7 @@
         <v>26.875718414534202</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>107</v>
       </c>
@@ -3526,7 +3660,7 @@
         <v>34.794310916605902</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>112</v>
       </c>
@@ -3552,7 +3686,7 @@
         <v>19.835034190722698</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>117</v>
       </c>
@@ -3578,7 +3712,7 @@
         <v>21.1698721596713</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>1</v>
       </c>
@@ -3604,7 +3738,7 @@
         <v>45.707048757287701</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>6</v>
       </c>
@@ -3630,7 +3764,7 @@
         <v>39.405373716251802</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>11</v>
       </c>
@@ -3656,7 +3790,7 @@
         <v>31.0843497446801</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>16</v>
       </c>
@@ -3682,7 +3816,7 @@
         <v>29.528311972867701</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>21</v>
       </c>
@@ -3708,7 +3842,7 @@
         <v>25.289306569002001</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>26</v>
       </c>
@@ -3734,7 +3868,7 @@
         <v>24.803154497863499</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>31</v>
       </c>
@@ -3760,7 +3894,7 @@
         <v>37.371660645840798</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>36</v>
       </c>
@@ -3786,7 +3920,7 @@
         <v>34.170833984578501</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>41</v>
       </c>
@@ -3812,7 +3946,7 @@
         <v>29.285631035970301</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>46</v>
       </c>
@@ -3838,7 +3972,7 @@
         <v>30.710455760338899</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>51</v>
       </c>
@@ -3864,7 +3998,7 @@
         <v>17.753788748764698</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>56</v>
       </c>
@@ -3890,7 +4024,7 @@
         <v>17.272077938642099</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>61</v>
       </c>
@@ -3916,7 +4050,7 @@
         <v>43.427089152702003</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>66</v>
       </c>
@@ -3942,7 +4076,7 @@
         <v>37.603251595195999</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>71</v>
       </c>
@@ -3968,7 +4102,7 @@
         <v>25.449264745632298</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>76</v>
       </c>
@@ -3994,7 +4128,7 @@
         <v>29.230572330415399</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>81</v>
       </c>
@@ -4020,7 +4154,7 @@
         <v>21.689724227462602</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>86</v>
       </c>
@@ -4046,7 +4180,7 @@
         <v>21.7041684766873</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>91</v>
       </c>
@@ -4072,7 +4206,7 @@
         <v>42.226865067286703</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>96</v>
       </c>
@@ -4098,7 +4232,7 @@
         <v>38.938081655024902</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>101</v>
       </c>
@@ -4124,7 +4258,7 @@
         <v>30.221050929652499</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>106</v>
       </c>
@@ -4150,7 +4284,7 @@
         <v>43.647299905592703</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>111</v>
       </c>
@@ -4176,7 +4310,7 @@
         <v>16.466580756221301</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>116</v>
       </c>
